--- a/SOC_Year.xlsx
+++ b/SOC_Year.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>Monthly Battery State of Charge (Plant 9209949):</t>
+    <t>Monthly Battery State of Charge (Plant 5340310):</t>
   </si>
   <si>
     <t>Month</t>

--- a/SOC_Year.xlsx
+++ b/SOC_Year.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>Monthly Battery State of Charge (Plant 5340310):</t>
+    <t>Monthly Battery State of Charge (Plant 9209949):</t>
   </si>
   <si>
     <t>Month</t>
